--- a/for_patterns_generating/pats.xlsx
+++ b/for_patterns_generating/pats.xlsx
@@ -414,71 +414,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:A9"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>[[10, 32, 20, 20, 1041, 34, 10, 62], [10, 10, 10, 10, 10, 10, 10, 62], [10, 10, 10, 10, 20, 71, 10, 62], [10, 20, 10, 10, 20, 10, 31, 10], [10, 20, 20, 20, 34, 10, 33, 20], [10, 20, 20, 34, 20, 10, 42, 20], [10, 42, 10, 32, 20, 20, 34, 33], [20, 20, 20, 20, 34, 10, 10, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>[[42, 10, 10, 10, 10, 10, 10, 62], [31, 20, 20, 10, 10, 20, 10, 62], [20, 10, 20, 32, 34, 20, 10, 62], [20, 10, 10, 10, 10, 33, 10, 20], [20, 10, 10, 20, 20, 34, 10, 10], [33, 10, 20, 20, 20, 34, 71, 10], [20, 1041, 20, 34, 10, 10, 41, 20], [10, 32, 20, 20, 34, 10, 10, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>[[10, 20, 10, 20, 20, 10, 10, 31], [10, 20, 10, 10, 10, 41, 20, 20], [10, 20, 71, 10, 10, 10, 20, 20], [10, 33, 10, 10, 10, 10, 20, 33], [20, 10, 20, 20, 34, 10, 20, 10], [64, 10, 1041, 20, 20, 34, 33, 10], [64, 10, 10, 32, 20, 20, 20, 34], [64, 10, 32, 34, 10, 10, 10, 42]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>[[10, 20, 20, 20, 20, 34, 10, 42], [1041, 20, 10, 20, 20, 10, 10, 31], [20, 20, 10, 20, 10, 10, 31, 20], [20, 33, 10, 33, 10, 10, 20, 20], [33, 10, 10, 10, 10, 10, 20, 20], [10, 10, 20, 32, 34, 10, 33, 33], [41, 10, 10, 10, 10, 10, 10, 10], [10, 63, 63, 63, 20, 20, 71, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>[[10, 10, 32, 20, 20, 34, 10, 41], [31, 10, 20, 20, 20, 34, 10, 10], [20, 20, 20, 31, 10, 20, 10, 10], [20, 1041, 33, 33, 20, 20, 10, 71], [20, 20, 10, 10, 10, 20, 10, 62], [33, 33, 10, 10, 20, 33, 10, 62], [10, 10, 20, 10, 10, 10, 10, 62], [10, 10, 20, 10, 10, 41, 20, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>[[20, 10, 20, 20, 20, 34, 10, 10], [41, 32, 34, 32, 20, 20, 34, 10], [10, 10, 10, 20, 10, 10, 10, 20], [10, 10, 71, 10, 10, 10, 10, 62], [10, 10, 10, 20, 20, 34, 10, 62], [20, 10, 20, 20, 20, 34, 10, 62], [1041, 20, 20, 34, 10, 10, 41, 10], [10, 10, 10, 32, 20, 20, 20, 34]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>[[10, 10, 32, 20, 20, 1041, 34, 20], [64, 10, 10, 10, 20, 10, 10, 10], [64, 10, 20, 20, 20, 20, 31, 10], [64, 10, 20, 20, 20, 10, 20, 10], [20, 10, 10, 33, 33, 20, 20, 10], [20, 31, 10, 10, 10, 10, 33, 41], [33, 33, 41, 10, 10, 71, 10, 10], [10, 20, 20, 20, 34, 10, 10, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>[[31, 10, 71, 32, 34, 10, 10, 42], [20, 10, 10, 20, 20, 10, 10, 10], [20, 41, 10, 20, 20, 10, 10, 20], [20, 20, 10, 33, 20, 10, 20, 10], [33, 10, 10, 10, 33, 10, 10, 62], [10, 32, 20, 20, 34, 10, 10, 62], [10, 20, 20, 34, 10, 10, 10, 62], [10, 20, 20, 1041, 34, 10, 20, 20]]</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
